--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,22 +672,74 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
+      <c r="A8" s="8">
+        <v>43927</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>36450</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:D9" si="1">C8-C6</f>
+        <v>500</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="11">
+        <f>D8*E8</f>
+        <v>2245</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>2731</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUM(G8,G9)</f>
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>19400</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="10">
+        <f>D9*E9</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G10" s="12">
         <f>SUM(G4:G7)</f>
         <v>6117</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H10" s="12">
         <f>SUM(H4:H7)</f>
         <v>6117</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="10">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>3143</v>
       </c>
       <c r="G4" s="12">
@@ -606,14 +606,14 @@
         <v>19050</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D7" si="0">C5-C3</f>
+        <f t="shared" ref="D5:D7" si="1">C5-C3</f>
         <v>150</v>
       </c>
       <c r="E5" s="4">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="10">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>364.5</v>
       </c>
       <c r="G5" s="2"/>
@@ -630,14 +630,14 @@
         <v>35950</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="E6" s="9">
         <v>4.49</v>
       </c>
       <c r="F6" s="11">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>2245</v>
       </c>
       <c r="G6" s="12">
@@ -658,14 +658,14 @@
         <v>19200</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="E7" s="4">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="10">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>364.5</v>
       </c>
       <c r="G7" s="2"/>
@@ -682,14 +682,14 @@
         <v>36450</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D9" si="1">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
         <v>500</v>
       </c>
       <c r="E8" s="9">
         <v>4.49</v>
       </c>
       <c r="F8" s="11">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>2245</v>
       </c>
       <c r="G8" s="12">
@@ -710,36 +710,140 @@
         <v>19400</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E9" s="4">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>36800</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>350</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1571.5</v>
       </c>
       <c r="G10" s="12">
-        <f>SUM(G4:G7)</f>
-        <v>6117</v>
+        <f>SUM(F10,F11)</f>
+        <v>1936</v>
       </c>
       <c r="H10" s="12">
-        <f>SUM(H4:H7)</f>
-        <v>6117</v>
+        <f>SUM(G10,G11)</f>
+        <v>1936</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>19550</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="4"/>
+        <v>364.5</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>36850</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>224.5</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>346</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(G12,G13)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>19600</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="6"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G4:G11)</f>
+        <v>10784</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H4:H11)</f>
+        <v>10784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,22 +828,76 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="8">
+        <v>44007</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>37050</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:D15" si="7">C14-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>898</v>
       </c>
       <c r="G14" s="12">
-        <f>SUM(G4:G11)</f>
-        <v>10784</v>
+        <f>SUM(F14,F15)</f>
+        <v>1175.02</v>
       </c>
       <c r="H14" s="12">
-        <f>SUM(H4:H11)</f>
-        <v>10784</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>19714</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="8"/>
+        <v>277.02000000000004</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(G4:G15)</f>
+        <v>12305.02</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H4:H15)</f>
+        <v>12330</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>24.979999999999563</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -879,24 +879,75 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="8">
+        <v>44028</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>37231</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D17" si="9">C16-C14</f>
+        <v>181</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>852.51</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>1082.01</v>
+      </c>
+      <c r="H16" s="12">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>19804</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="10"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUM(G4:G15)</f>
-        <v>12305.02</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H4:H15)</f>
-        <v>12330</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>24.979999999999563</v>
+      <c r="G18" s="12">
+        <f>SUM(G4:G17)</f>
+        <v>13387.03</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H4:H17)</f>
+        <v>13312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>-75.030000000000655</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,24 +930,75 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="8">
+        <v>44060</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>37487</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:D19" si="11">C18-C16</f>
+        <v>256</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>1205.76</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(F18,F19)</f>
+        <v>1552.56</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1552.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>19940</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="12"/>
+        <v>346.79999999999995</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
-        <f>SUM(G4:G17)</f>
-        <v>13387.03</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H4:H17)</f>
-        <v>13312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
-        <v>-75.030000000000655</v>
+      <c r="G20" s="12">
+        <f>SUM(G4:G19)</f>
+        <v>14939.59</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H4:H19)</f>
+        <v>14864.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12">
+        <f>SUM(H20,-G20)</f>
+        <v>-74.630000000001019</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,23 +981,74 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="8">
+        <v>44090</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>37927</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:D21" si="13">C20-C18</f>
+        <v>440</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>2072.4</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>2613</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>20152</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="14"/>
+        <v>540.59999999999991</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
-        <f>SUM(G4:G19)</f>
-        <v>14939.59</v>
-      </c>
-      <c r="H20" s="12">
-        <f>SUM(H4:H19)</f>
-        <v>14864.96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="12">
-        <f>SUM(H20,-G20)</f>
+      <c r="G22" s="12">
+        <f>SUM(G4:G21)</f>
+        <v>17552.59</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(H4:H21)</f>
+        <v>17477.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
         <v>-74.630000000001019</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1032,23 +1032,74 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="8">
+        <v>44120</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>38597</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D23" si="15">C22-C20</f>
+        <v>670</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
+        <v>3155.7</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(F22,F23)</f>
+        <v>3987</v>
+      </c>
+      <c r="H22" s="12">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>20478</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="15"/>
+        <v>326</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="16"/>
+        <v>831.3</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
-        <f>SUM(G4:G21)</f>
-        <v>17552.59</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H4:H21)</f>
-        <v>17477.96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
+      <c r="G24" s="12">
+        <f>SUM(G4:G23)</f>
+        <v>21539.59</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H4:H23)</f>
+        <v>21464.959999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="12">
+        <f>SUM(H24,-G24)</f>
         <v>-74.630000000001019</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,9 +165,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,64 +534,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>43833</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>44060</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>34750</v>
+      <c r="C2" s="8">
+        <v>37487</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="11">
+        <v>74.63</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>18900</v>
+        <v>19940</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>43860</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>44090</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <v>35450</v>
+      <c r="C4" s="8">
+        <v>37927</v>
       </c>
       <c r="D4" s="4">
-        <f>C4-C2</f>
-        <v>700</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4.49</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>440</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>3143</v>
-      </c>
-      <c r="G4" s="12">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2072.4</v>
+      </c>
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>3507.5</v>
-      </c>
-      <c r="H4" s="12">
-        <f>SUM(G4,G5)</f>
-        <v>3507.5</v>
+        <v>2613</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2613</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,50 +601,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>19050</v>
+        <v>20152</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D7" si="1">C5-C3</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>212</v>
       </c>
       <c r="E5" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" si="0"/>
-        <v>364.5</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>540.59999999999991</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43892</v>
+      <c r="A6" s="7">
+        <v>44120</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
-        <v>35950</v>
+      <c r="C6" s="8">
+        <v>38597</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>2245</v>
-      </c>
-      <c r="G6" s="12">
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>670</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>3155.7</v>
+      </c>
+      <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>2609.5</v>
-      </c>
-      <c r="H6" s="12">
-        <f>SUM(G6,G7)</f>
-        <v>2609.5</v>
+        <v>3987</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3987</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,50 +652,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>19200</v>
+        <v>20478</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>326</v>
       </c>
       <c r="E7" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>364.5</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>831.3</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43927</v>
+      <c r="A8" s="7">
+        <v>44158</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
-        <v>36450</v>
+      <c r="C8" s="8">
+        <v>39389</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
-        <v>500</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>2245</v>
-      </c>
-      <c r="G8" s="12">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>792</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>3730.32</v>
+      </c>
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>2731</v>
-      </c>
-      <c r="H8" s="12">
-        <f>SUM(G8,G9)</f>
-        <v>2731</v>
+        <v>4839.57</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4839.57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,406 +703,47 @@
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>19400</v>
+        <v>20913</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>435</v>
       </c>
       <c r="E9" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>486.00000000000006</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="5"/>
+        <v>1109.25</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43955</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>36800</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
-        <v>350</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>1571.5</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
-        <v>1936</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(G10,G11)</f>
-        <v>1936</v>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G2:G7)</f>
+        <v>6674.63</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H2:H7)</f>
+        <v>6600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>19550</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="4"/>
-        <v>364.5</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43973</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>36850</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
-        <v>50</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>224.5</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUM(F12,F13)</f>
-        <v>346</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUM(G12,G13)</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>19600</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="6"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44007</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>37050</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:D15" si="7">C14-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
-        <v>898</v>
-      </c>
-      <c r="G14" s="12">
-        <f>SUM(F14,F15)</f>
-        <v>1175.02</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>19714</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="8"/>
-        <v>277.02000000000004</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44028</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>37231</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ref="D16:D17" si="9">C16-C14</f>
-        <v>181</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>852.51</v>
-      </c>
-      <c r="G16" s="12">
-        <f>SUM(F16,F17)</f>
-        <v>1082.01</v>
-      </c>
-      <c r="H16" s="12">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>19804</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="10"/>
-        <v>229.49999999999997</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44060</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>37487</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ref="D18:D19" si="11">C18-C16</f>
-        <v>256</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>1205.76</v>
-      </c>
-      <c r="G18" s="12">
-        <f>SUM(F18,F19)</f>
-        <v>1552.56</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1552.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>19940</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="11"/>
-        <v>136</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="12"/>
-        <v>346.79999999999995</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>44090</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>37927</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:D21" si="13">C20-C18</f>
-        <v>440</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
-        <v>2072.4</v>
-      </c>
-      <c r="G20" s="12">
-        <f>SUM(F20,F21)</f>
-        <v>2613</v>
-      </c>
-      <c r="H20" s="12">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20152</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="13"/>
-        <v>212</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="14"/>
-        <v>540.59999999999991</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>44120</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>38597</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ref="D22:D23" si="15">C22-C20</f>
-        <v>670</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
-        <v>3155.7</v>
-      </c>
-      <c r="G22" s="12">
-        <f>SUM(F22,F23)</f>
-        <v>3987</v>
-      </c>
-      <c r="H22" s="12">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>20478</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="15"/>
-        <v>326</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="16"/>
-        <v>831.3</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="12">
-        <f>SUM(G4:G23)</f>
-        <v>21539.59</v>
-      </c>
-      <c r="H24" s="12">
-        <f>SUM(H4:H23)</f>
-        <v>21464.959999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="12">
-        <f>SUM(H24,-G24)</f>
-        <v>-74.630000000001019</v>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
+        <v>-74.630000000000109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,24 +720,75 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="7">
+        <v>44187</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>40004</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>615</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>2896.65</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>3972.75</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3972.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>21335</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="6"/>
+        <v>422</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="7"/>
+        <v>1076.0999999999999</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G2:G7)</f>
-        <v>6674.63</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H7)</f>
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
-        <v>-74.630000000000109</v>
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>15486.95</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>15412.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>-74.630000000001019</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -487,7 +487,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -771,23 +771,74 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="7">
+        <v>44218</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>40766</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>762</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>3589.02</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>4958.37</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4958.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>21872</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="8"/>
+        <v>537</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="9"/>
+        <v>1369.35</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <f>SUM(G2:G11)</f>
         <v>15486.95</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H11)</f>
         <v>15412.32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>-74.630000000001019</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -79,12 +79,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -180,6 +186,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -740,11 +747,11 @@
         <f t="shared" ref="F10:F11" si="7">D10*E10</f>
         <v>2896.65</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <f>SUM(F10,F11)</f>
         <v>3972.75</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>3972.75</v>
       </c>
     </row>
@@ -822,24 +829,177 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="7">
+        <v>44247</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>41683</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>917</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>4319.07</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>5787.87</v>
+      </c>
+      <c r="H14" s="11">
+        <v>5787.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>22448</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="10"/>
+        <v>576</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="11"/>
+        <v>1468.8</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44277</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>42655</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>972</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>4578.12</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>6174.42</v>
+      </c>
+      <c r="H16" s="11">
+        <v>6174.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23074</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="12"/>
+        <v>626</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="13"/>
+        <v>1596.3</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44307</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43425</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>770</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>3626.7</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>5258.7</v>
+      </c>
+      <c r="H18" s="11">
+        <v>5258.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>23714</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="14"/>
+        <v>640</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="15"/>
+        <v>1632</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>15486.95</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>15412.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>-74.630000000001019</v>
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>37666.31</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>37591.379999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
+        <v>-74.930000000000291</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -982,23 +982,74 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="7">
+        <v>44340</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43850</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>425</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>2001.75</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>2993.7</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2993.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24103</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="16"/>
+        <v>389</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="17"/>
+        <v>991.94999999999993</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <f>SUM(G2:G19)</f>
         <v>37666.31</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <f>SUM(H2:H19)</f>
         <v>37591.379999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
         <v>-74.930000000000291</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,23 +1033,74 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="7">
+        <v>44368</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43938</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>88</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>414.48</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>493.53000000000003</v>
+      </c>
+      <c r="H22" s="11">
+        <v>493.53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>24134</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="19"/>
+        <v>79.05</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>37666.31</v>
-      </c>
-      <c r="H22" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>37591.379999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G24" s="11">
+        <f>SUM(G2:G23)</f>
+        <v>41153.539999999994</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H2:H23)</f>
+        <v>41078.609999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-74.930000000000291</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1084,23 +1084,74 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="7">
+        <v>44399</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44031</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
+        <v>93</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>461.28</v>
+      </c>
+      <c r="G24" s="11">
+        <f>SUM(F24,F25)</f>
+        <v>552.4</v>
+      </c>
+      <c r="H24" s="11">
+        <v>552.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>24168</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="21"/>
+        <v>91.12</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G23)</f>
-        <v>41153.539999999994</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H23)</f>
-        <v>41078.609999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
+      <c r="G26" s="11">
+        <f>SUM(G2:G25)</f>
+        <v>41705.939999999995</v>
+      </c>
+      <c r="H26" s="11">
+        <f>SUM(H2:H25)</f>
+        <v>41631.009999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
         <v>-74.930000000000291</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,23 +1135,74 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="7">
+        <v>44428</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>44116</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26:D27" si="22">C26-C24</f>
+        <v>85</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>421.6</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(F26,F27)</f>
+        <v>504.68</v>
+      </c>
+      <c r="H26" s="11">
+        <v>504.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>24199</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="22"/>
+        <v>31</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="23"/>
+        <v>83.08</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G28" s="11">
         <f>SUM(G2:G25)</f>
         <v>41705.939999999995</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H28" s="11">
         <f>SUM(H2:H25)</f>
         <v>41631.009999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
         <v>-74.930000000000291</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +186,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A27" sqref="A2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,22 +544,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>44060</v>
+      <c r="A2" s="12">
+        <v>44462</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>37487</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
+        <v>44275</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>159</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F4" si="1">D2*E2</f>
+        <v>788.64</v>
+      </c>
       <c r="G2" s="11">
-        <v>74.63</v>
-      </c>
-      <c r="H2" s="11"/>
+        <f>SUM(F2,F3)</f>
+        <v>986.96</v>
+      </c>
+      <c r="H2" s="11">
+        <v>986.96</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -565,41 +578,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>19940</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="9"/>
+        <v>24273</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="1"/>
+        <v>198.32000000000002</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>44090</v>
+        <v>44428</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>37927</v>
+        <v>44116</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
-        <v>440</v>
+        <f>C4-C6</f>
+        <v>85</v>
       </c>
       <c r="E4" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2072.4</v>
+        <f t="shared" si="1"/>
+        <v>421.6</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>2613</v>
+        <v>504.68</v>
       </c>
       <c r="H4" s="11">
-        <v>2613</v>
+        <v>504.68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -608,50 +629,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>20152</v>
+        <v>24199</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>212</v>
+        <f>C5-C7</f>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>540.59999999999991</v>
+        <f>D5*E5</f>
+        <v>83.08</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>44120</v>
+        <v>44399</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>38597</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
-        <v>670</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>3155.7</v>
-      </c>
-      <c r="G6" s="11">
-        <f>SUM(F6,F7)</f>
-        <v>3987</v>
-      </c>
-      <c r="H6" s="11">
-        <v>3987</v>
-      </c>
+        <v>44031</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -659,551 +667,34 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>20478</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="2"/>
-        <v>326</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="3"/>
-        <v>831.3</v>
-      </c>
+        <v>24168</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44158</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(G2:G3)</f>
+        <v>986.96</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(H2:H3)</f>
+        <v>986.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>39389</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
-        <v>792</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>3730.32</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(F8,F9)</f>
-        <v>4839.57</v>
-      </c>
-      <c r="H8" s="11">
-        <v>4839.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20913</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="4"/>
-        <v>435</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="5"/>
-        <v>1109.25</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>44187</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>40004</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
-        <v>615</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>2896.65</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
-        <v>3972.75</v>
-      </c>
-      <c r="H10" s="12">
-        <v>3972.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21335</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="6"/>
-        <v>422</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="7"/>
-        <v>1076.0999999999999</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>44218</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>40766</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
-        <v>762</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>3589.02</v>
-      </c>
-      <c r="G12" s="11">
-        <f>SUM(F12,F13)</f>
-        <v>4958.37</v>
-      </c>
-      <c r="H12" s="11">
-        <v>4958.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>21872</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="8"/>
-        <v>537</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="9"/>
-        <v>1369.35</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>44247</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>41683</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
-        <v>917</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>4319.07</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>5787.87</v>
-      </c>
-      <c r="H14" s="11">
-        <v>5787.87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>22448</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="10"/>
-        <v>576</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="11"/>
-        <v>1468.8</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>44277</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>42655</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
-        <v>972</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>4578.12</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>6174.42</v>
-      </c>
-      <c r="H16" s="11">
-        <v>6174.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>23074</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="12"/>
-        <v>626</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="13"/>
-        <v>1596.3</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>44307</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>43425</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
-        <v>770</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
-        <v>3626.7</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>5258.7</v>
-      </c>
-      <c r="H18" s="11">
-        <v>5258.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>23714</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="14"/>
-        <v>640</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="15"/>
-        <v>1632</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>44340</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>43850</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
-        <v>425</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>2001.75</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>2993.7</v>
-      </c>
-      <c r="H20" s="11">
-        <v>2993.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>24103</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="16"/>
-        <v>389</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="17"/>
-        <v>991.94999999999993</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>44368</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>43938</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
-        <v>88</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
-        <v>414.48</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>493.53000000000003</v>
-      </c>
-      <c r="H22" s="11">
-        <v>493.53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>24134</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="18"/>
-        <v>31</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="19"/>
-        <v>79.05</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>44399</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>44031</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
-        <v>93</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
-        <v>461.28</v>
-      </c>
-      <c r="G24" s="11">
-        <f>SUM(F24,F25)</f>
-        <v>552.4</v>
-      </c>
-      <c r="H24" s="11">
-        <v>552.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>24168</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="20"/>
-        <v>34</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="21"/>
-        <v>91.12</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>44428</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>44116</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" ref="D26:D27" si="22">C26-C24</f>
-        <v>85</v>
-      </c>
-      <c r="E26" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
-        <v>421.6</v>
-      </c>
-      <c r="G26" s="11">
-        <f>SUM(F26,F27)</f>
-        <v>504.68</v>
-      </c>
-      <c r="H26" s="11">
-        <v>504.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4">
-        <v>24199</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="22"/>
-        <v>31</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="23"/>
-        <v>83.08</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="11">
-        <f>SUM(G2:G25)</f>
-        <v>41705.939999999995</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(H2:H25)</f>
-        <v>41631.009999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
-        <v>-74.930000000000291</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -79,7 +79,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -187,6 +193,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A2:H27"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,31 +554,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44462</v>
+        <v>44494</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>44275</v>
+        <v>44419</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F4" si="1">D2*E2</f>
-        <v>788.64</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>714.24</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>986.96</v>
+        <v>848.24</v>
       </c>
       <c r="H2" s="11">
-        <v>986.96</v>
+        <v>848.24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>24273</v>
+        <v>24323</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>198.32000000000002</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44428</v>
+      <c r="A4" s="13">
+        <v>44462</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>44116</v>
+        <v>44275</v>
       </c>
       <c r="D4" s="4">
-        <f>C4-C6</f>
-        <v>85</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>159</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" si="1"/>
-        <v>421.6</v>
+        <f t="shared" ref="F4:F6" si="3">D4*E4</f>
+        <v>788.64</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>504.68</v>
+        <v>986.96</v>
       </c>
       <c r="H4" s="11">
-        <v>504.68</v>
+        <v>986.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,37 +638,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>24199</v>
+        <v>24273</v>
       </c>
       <c r="D5" s="4">
-        <f>C5-C7</f>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="E5" s="4">
         <v>2.68</v>
       </c>
       <c r="F5" s="9">
-        <f>D5*E5</f>
-        <v>83.08</v>
+        <f t="shared" si="3"/>
+        <v>198.32000000000002</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>44399</v>
+        <v>44428</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>44031</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>44116</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6-C8</f>
+        <v>85</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="3"/>
+        <v>421.6</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>504.68</v>
+      </c>
+      <c r="H6" s="11">
+        <v>504.68</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -667,33 +689,71 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>24168</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9"/>
+        <v>24199</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7-C9</f>
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="9">
+        <f>D7*E7</f>
+        <v>83.08</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44399</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44031</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>24168</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
-        <f>SUM(G2:G3)</f>
+      <c r="G10" s="11">
+        <f>SUM(G4:G5)</f>
         <v>986.96</v>
       </c>
-      <c r="H8" s="11">
-        <f>SUM(H2:H3)</f>
+      <c r="H10" s="11">
+        <f>SUM(H4:H5)</f>
         <v>986.96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="11">
-        <f>SUM(H8,-G8)</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/98ee.xlsx
+++ b/sputnik/personal/ee/98ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -505,7 +505,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -554,31 +554,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44494</v>
+        <v>44553</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>44419</v>
+        <v>44803</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>714.24</v>
+        <v>1120.96</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>848.24</v>
+        <v>1378.24</v>
       </c>
       <c r="H2" s="11">
-        <v>848.24</v>
+        <v>1378.24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>24323</v>
+        <v>24479</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>257.28000000000003</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44462</v>
+        <v>44522</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>44275</v>
+        <v>44577</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F6" si="3">D4*E4</f>
-        <v>788.64</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>783.68</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>986.96</v>
+        <v>944.48</v>
       </c>
       <c r="H4" s="11">
-        <v>986.96</v>
+        <v>944.48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>24273</v>
+        <v>24383</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4">
         <v>2.68</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>198.32000000000002</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44428</v>
+      <c r="A6" s="13">
+        <v>44494</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>44116</v>
+        <v>44419</v>
       </c>
       <c r="D6" s="4">
-        <f>C6-C8</f>
-        <v>85</v>
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
+        <v>144</v>
       </c>
       <c r="E6" s="8">
         <v>4.96</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="3"/>
-        <v>421.6</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>714.24</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>504.68</v>
+        <v>848.24</v>
       </c>
       <c r="H6" s="11">
-        <v>504.68</v>
+        <v>848.24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,37 +689,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>24199</v>
+        <v>24323</v>
       </c>
       <c r="D7" s="4">
-        <f>C7-C9</f>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="E7" s="4">
         <v>2.68</v>
       </c>
       <c r="F7" s="9">
-        <f>D7*E7</f>
-        <v>83.08</v>
+        <f t="shared" si="5"/>
+        <v>134</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44399</v>
+      <c r="A8" s="13">
+        <v>44462</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>44031</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+        <v>44275</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
+        <v>159</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F10" si="7">D8*E8</f>
+        <v>788.64</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>986.96</v>
+      </c>
+      <c r="H8" s="11">
+        <v>986.96</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -727,33 +740,122 @@
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>24168</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
+        <v>24273</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="7"/>
+        <v>198.32000000000002</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="7">
+        <v>44428</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44116</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10-C12</f>
+        <v>85</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="7"/>
+        <v>421.6</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>504.68</v>
+      </c>
+      <c r="H10" s="11">
+        <v>504.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>24199</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11-C13</f>
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="9">
+        <f>D11*E11</f>
+        <v>83.08</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44399</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44031</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>24168</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G4:G5)</f>
+      <c r="G14" s="11">
+        <f>SUM(G8:G9)</f>
         <v>986.96</v>
       </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H5)</f>
+      <c r="H14" s="11">
+        <f>SUM(H8:H9)</f>
         <v>986.96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>
